--- a/Magasin/Magasin M4.xlsx
+++ b/Magasin/Magasin M4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\gestion-d-un-magasin\Magasin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3422,7 +3422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3703,6 +3703,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -3718,14 +3728,7 @@
     <xf numFmtId="8" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6156,7 +6159,7 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="110" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -6176,7 +6179,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="110" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -6196,7 +6199,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="115" t="s">
+      <c r="A9" s="110" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -6216,7 +6219,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="115" t="s">
+      <c r="A10" s="110" t="s">
         <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -6236,7 +6239,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="110" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -6251,12 +6254,12 @@
       <c r="E11" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="111" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="115" t="s">
+      <c r="A12" s="110" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -6271,12 +6274,12 @@
       <c r="E12" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="111" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="110" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -6291,12 +6294,12 @@
       <c r="E13" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="116" t="s">
+      <c r="F13" s="111" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="115" t="s">
+      <c r="A14" s="110" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -6316,7 +6319,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="115" t="s">
+      <c r="A15" s="110" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -6336,7 +6339,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="110" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -6356,7 +6359,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="115" t="s">
+      <c r="A17" s="110" t="s">
         <v>81</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -6376,7 +6379,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="115" t="s">
+      <c r="A18" s="110" t="s">
         <v>84</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -6396,7 +6399,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
+      <c r="A19" s="110" t="s">
         <v>87</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -6416,7 +6419,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
+      <c r="A20" s="110" t="s">
         <v>91</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -6436,7 +6439,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="115" t="s">
+      <c r="A21" s="110" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -6456,7 +6459,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="110" t="s">
         <v>96</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -6471,13 +6474,13 @@
       <c r="E22" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="111" t="s">
         <v>98</v>
       </c>
       <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="115" t="s">
+      <c r="A23" s="110" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -6497,7 +6500,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="110" t="s">
         <v>101</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -6517,7 +6520,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="115" t="s">
+      <c r="A25" s="110" t="s">
         <v>105</v>
       </c>
       <c r="B25" s="6" t="s">
@@ -6537,7 +6540,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="115" t="s">
+      <c r="A26" s="110" t="s">
         <v>108</v>
       </c>
       <c r="B26" s="6" t="s">
@@ -6557,7 +6560,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="115" t="s">
+      <c r="A27" s="110" t="s">
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -6577,7 +6580,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="110" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -6597,7 +6600,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="115" t="s">
+      <c r="A29" s="110" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -6617,7 +6620,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="115" t="s">
+      <c r="A30" s="110" t="s">
         <v>121</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -6637,7 +6640,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="110" t="s">
         <v>125</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -6657,7 +6660,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="115" t="s">
+      <c r="A32" s="110" t="s">
         <v>129</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -6761,7 +6764,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6822,7 +6825,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="117" t="s">
+      <c r="A9" s="112" t="s">
         <v>196</v>
       </c>
       <c r="B9" s="77" t="s">
@@ -6843,7 +6846,7 @@
       <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="117" t="s">
+      <c r="A10" s="112" t="s">
         <v>198</v>
       </c>
       <c r="B10" s="77" t="s">
@@ -6864,7 +6867,7 @@
       <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="112" t="s">
         <v>199</v>
       </c>
       <c r="B11" s="77" t="s">
@@ -6885,7 +6888,7 @@
       <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="117" t="s">
+      <c r="A12" s="112" t="s">
         <v>200</v>
       </c>
       <c r="B12" s="77" t="s">
@@ -6904,7 +6907,7 @@
       <c r="G12" s="72"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="112" t="s">
         <v>201</v>
       </c>
       <c r="B13" s="77" t="s">
@@ -6925,7 +6928,7 @@
       <c r="G13" s="72"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="112" t="s">
         <v>202</v>
       </c>
       <c r="B14" s="77" t="s">
@@ -6946,7 +6949,7 @@
       <c r="G14" s="72"/>
     </row>
     <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="119" t="s">
         <v>203</v>
       </c>
       <c r="B15" s="77" t="s">
@@ -6967,7 +6970,7 @@
       <c r="G15" s="72"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="112" t="s">
         <v>204</v>
       </c>
       <c r="B16" s="77" t="s">
@@ -6988,7 +6991,7 @@
       <c r="G16" s="72"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
+      <c r="A17" s="112" t="s">
         <v>205</v>
       </c>
       <c r="B17" s="77" t="s">
@@ -7009,7 +7012,7 @@
       <c r="G17" s="72"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="117" t="s">
+      <c r="A18" s="112" t="s">
         <v>206</v>
       </c>
       <c r="B18" s="77" t="s">
@@ -7024,13 +7027,13 @@
       <c r="E18" s="72">
         <v>2</v>
       </c>
-      <c r="F18" s="117" t="s">
+      <c r="F18" s="112" t="s">
         <v>597</v>
       </c>
       <c r="G18" s="72"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="112" t="s">
         <v>207</v>
       </c>
       <c r="B19" s="77" t="s">
@@ -7051,7 +7054,7 @@
       <c r="G19" s="72"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="117" t="s">
+      <c r="A20" s="112" t="s">
         <v>208</v>
       </c>
       <c r="B20" s="77" t="s">
@@ -7072,7 +7075,7 @@
       <c r="G20" s="72"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
+      <c r="A21" s="112" t="s">
         <v>209</v>
       </c>
       <c r="B21" s="77" t="s">
@@ -7087,13 +7090,13 @@
       <c r="E21" s="72">
         <v>8</v>
       </c>
-      <c r="F21" s="118" t="s">
+      <c r="F21" s="113" t="s">
         <v>602</v>
       </c>
       <c r="G21" s="72"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="112" t="s">
         <v>210</v>
       </c>
       <c r="B22" s="77" t="s">
@@ -7108,13 +7111,13 @@
       <c r="E22" s="72">
         <v>2</v>
       </c>
-      <c r="F22" s="117" t="s">
+      <c r="F22" s="112" t="s">
         <v>605</v>
       </c>
       <c r="G22" s="72"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="112" t="s">
         <v>211</v>
       </c>
       <c r="B23" s="77" t="s">
@@ -7129,13 +7132,13 @@
       <c r="E23" s="72">
         <v>14</v>
       </c>
-      <c r="F23" s="117" t="s">
+      <c r="F23" s="112" t="s">
         <v>607</v>
       </c>
       <c r="G23" s="72"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
+      <c r="A24" s="112" t="s">
         <v>212</v>
       </c>
       <c r="B24" s="77" t="s">
@@ -7156,7 +7159,7 @@
       <c r="G24" s="72"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
+      <c r="A25" s="112" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="77" t="s">
@@ -7177,7 +7180,7 @@
       <c r="G25" s="72"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="117" t="s">
+      <c r="A26" s="112" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="77" t="s">
@@ -7192,13 +7195,13 @@
       <c r="E26" s="72">
         <v>1</v>
       </c>
-      <c r="F26" s="117" t="s">
+      <c r="F26" s="112" t="s">
         <v>613</v>
       </c>
       <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="117" t="s">
+      <c r="A27" s="112" t="s">
         <v>215</v>
       </c>
       <c r="B27" s="77" t="s">
@@ -7213,13 +7216,13 @@
       <c r="E27" s="72">
         <v>1</v>
       </c>
-      <c r="F27" s="117" t="s">
+      <c r="F27" s="112" t="s">
         <v>615</v>
       </c>
       <c r="G27" s="72"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="112" t="s">
         <v>216</v>
       </c>
       <c r="B28" s="77" t="s">
@@ -7234,7 +7237,7 @@
       <c r="E28" s="72">
         <v>11</v>
       </c>
-      <c r="F28" s="117" t="s">
+      <c r="F28" s="112" t="s">
         <v>619</v>
       </c>
       <c r="G28" s="72"/>
@@ -26531,10 +26534,10 @@
       <c r="A21" s="98" t="s">
         <v>884</v>
       </c>
-      <c r="B21" s="112" t="s">
+      <c r="B21" s="116" t="s">
         <v>858</v>
       </c>
-      <c r="C21" s="114">
+      <c r="C21" s="118">
         <v>497.64</v>
       </c>
       <c r="D21" s="44" t="s">
@@ -26550,8 +26553,8 @@
     </row>
     <row r="22" spans="1:7" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="98"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
       <c r="D22" s="37"/>
       <c r="E22" s="44"/>
       <c r="F22" s="72"/>
@@ -26561,10 +26564,10 @@
       <c r="A23" s="98" t="s">
         <v>828</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="116" t="s">
         <v>898</v>
       </c>
-      <c r="C23" s="114">
+      <c r="C23" s="118">
         <v>0.14799999999999999</v>
       </c>
       <c r="D23" s="44" t="s">
@@ -26580,8 +26583,8 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="98"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
@@ -27473,7 +27476,7 @@
       <c r="B94" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C94" s="111">
+      <c r="C94" s="115">
         <v>61</v>
       </c>
       <c r="D94" s="62" t="s">
@@ -27494,7 +27497,7 @@
       <c r="B95" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C95" s="111"/>
+      <c r="C95" s="115"/>
       <c r="D95" s="62" t="s">
         <v>418</v>
       </c>
@@ -27555,10 +27558,10 @@
       <c r="A99" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="114" t="s">
         <v>423</v>
       </c>
-      <c r="C99" s="111">
+      <c r="C99" s="115">
         <v>72</v>
       </c>
       <c r="D99" s="62" t="s">
@@ -27576,8 +27579,8 @@
       <c r="A100" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B100" s="110"/>
-      <c r="C100" s="111"/>
+      <c r="B100" s="114"/>
+      <c r="C100" s="115"/>
       <c r="D100" s="62" t="s">
         <v>427</v>
       </c>
@@ -27593,10 +27596,10 @@
       <c r="A101" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B101" s="110" t="s">
+      <c r="B101" s="114" t="s">
         <v>429</v>
       </c>
-      <c r="C101" s="111">
+      <c r="C101" s="115">
         <f>7*25</f>
         <v>175</v>
       </c>
@@ -27609,8 +27612,8 @@
       <c r="A102" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B102" s="110"/>
-      <c r="C102" s="111"/>
+      <c r="B102" s="114"/>
+      <c r="C102" s="115"/>
       <c r="D102" s="72"/>
       <c r="E102" s="71"/>
       <c r="F102" s="71"/>
